--- a/Libraries/python/pctlocal/tests/ga/pctobject/testfiles/power_curve.xlsx
+++ b/Libraries/python/pctlocal/tests/ga/pctobject/testfiles/power_curve.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alp\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20721F34-B5F7-4117-9477-472CFE319571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F061C7CD-2C88-481A-BCCD-E29357CCB632}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4836" yWindow="852" windowWidth="24504" windowHeight="15516" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D96EEEA6-8318-4412-A136-7FDA6A7CE228}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +46,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -56,16 +54,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -73,12 +83,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD1D1D1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD1D1D1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD1D1D1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD1D1D1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,7 +141,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -125,7 +153,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -142,7 +170,7 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线 Light"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -172,12 +200,29 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="等线"/>
         <a:font script="Hant" typeface="新細明體"/>
@@ -207,6 +252,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,307 +420,257 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A5267EE-6E80-471B-8564-8A6640157D60}">
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection sqref="A1:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1">
+        <v>2.25</v>
+      </c>
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>2.75</v>
+      </c>
+      <c r="B3" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <f>1+A2</f>
-        <v>1</v>
-      </c>
-      <c r="B3">
+    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>3.25</v>
+      </c>
+      <c r="B4" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <f t="shared" ref="A4:A32" si="0">1+A3</f>
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <f>250+B8</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <f t="shared" ref="B10:B13" si="1">250+B9</f>
-        <v>750</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <f t="shared" si="1"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <f t="shared" si="1"/>
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <f t="shared" si="1"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>1625</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>1750</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
+    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
+        <v>3.75</v>
+      </c>
+      <c r="B5" s="1">
+        <v>20.2502351227064</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>4.25</v>
+      </c>
+      <c r="B6" s="1">
+        <v>47.823562497919902</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>4.75</v>
+      </c>
+      <c r="B7" s="1">
+        <v>93.916267079629307</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="B8" s="1">
+        <v>157.67958190652701</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>5.75</v>
+      </c>
+      <c r="B9" s="1">
+        <v>245.369684528357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="B10" s="1">
+        <v>355.50039140975599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1">
+        <v>6.75</v>
+      </c>
+      <c r="B11" s="1">
+        <v>487.66177589293301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1">
+        <v>7.25</v>
+      </c>
+      <c r="B12" s="1">
+        <v>628.41693137033496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="B13" s="1">
+        <v>775.61055070428904</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="1">
+        <v>8.25</v>
+      </c>
+      <c r="B14" s="1">
+        <v>920.47139617892697</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1063.42438432061</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="1">
+        <v>9.25</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1204.44497073003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1">
+        <v>9.75</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1343.9314220112301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1">
+        <v>10.25</v>
+      </c>
+      <c r="B18" s="1">
+        <v>1478.64901655873</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1608.98974317703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1">
+        <v>11.25</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1718.2832742821199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1">
+        <v>11.75</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1808.0374242467301</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1">
+        <v>12.25</v>
+      </c>
+      <c r="B22" s="1">
+        <v>1880.1150073440101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1">
+        <v>12.75</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1938.10324451834</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1">
+        <v>13.25</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1978.2998025602001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1">
+        <v>13.75</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2004.8088063579</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="1">
+        <v>14.25</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2019.74599484954</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1">
+        <v>14.75</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2027.44746436736</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1">
+        <v>15.25</v>
+      </c>
+      <c r="B28" s="1">
+        <v>2032.6645836423099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1">
+        <v>15.75</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2036.7388851027199</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="1">
+        <v>16.25</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2038.4550155428001</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>